--- a/data/minfin/27_questions.xlsx
+++ b/data/minfin/27_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,9 +75,6 @@
     <t>Куда поступают средства, получаемые от продажи акций, находящихся в федеральной собственности?</t>
   </si>
   <si>
-    <t>Имеет ли Российская Федерация, являющаяся акционером акционерного общества, какие либо преимущества перед другими акционерами при распределении прибыли общества по итогам года?</t>
-  </si>
-  <si>
     <t>Для чего может быть создано государственное унитарное предприятие?</t>
   </si>
   <si>
@@ -109,19 +106,22 @@
   </si>
   <si>
     <t>Государственное унитарное предприятие может быть создано при необходимости использования имущества, приватизация которого запрещена;   при необходимости осуществления научной и научно-технической деятельности в отраслях, связанных с обеспечением безопасности Российской Федерации; при необходимости осуществления деятельности, предусмотренной федеральными законами исключительно для государственных унитарных предприятий</t>
+  </si>
+  <si>
+    <t>Имеет ли Российская Федерация, являющаяся акционером акционерного общества, какие-либо преимущества перед другими акционерами при распределении прибыли общества по итогам года?</t>
   </si>
   <si>
     <t>Государственное унитарное предприятие может быть создано в случаях:
 - необходимости использования имущества, приватизация которого запрещена;
--  необходимости осуществления научной и научно-технической деятельности в отраслях, связанных с обеспечением безопасности Российской Федерации;
+- необходимости осуществления научной и научно-технической деятельности в отраслях, связанных с обеспечением безопасности Российской Федерации;
 - необходимости осуществления деятельности, предусмотренной федеральными законами исключительно для государственных унитарных предприятий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +524,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -541,7 +541,7 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -559,7 +559,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="204.75">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -605,17 +605,17 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -623,141 +623,141 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="204.75">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="11"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
